--- a/financialControl.xlsx
+++ b/financialControl.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Day</t>
   </si>
@@ -52,15 +52,15 @@
   </si>
   <si>
     <t>Index rotary</t>
+  </si>
+  <si>
+    <t>https://vi.aliexpress.com/item/T-l-20-1-Worm-Loai-Reducer-NEMA23-Worm-Gear-ng-C-B-c-2-8Nm/32841463277.html?spm=2114.10010108.1000014.1.4b115c02F4k4fb&amp;pvid=08888958-1276-48d9-a3ec-0a2ff57c7cdb&amp;gps-id=pcDetailBottomMoreOtherSeller&amp;scm=1007.13338.120274.000000000000000&amp;scm-url=1007.13338.120274.000000000000000&amp;scm_id=1007.13338.120274.000000000000000&amp;fbclid=IwAR2NFrEzP0PjPCEgglo3cGtLrq7Lk6hBt9w-g9eAX3J8KnxGtHRJZ2_m_Kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -93,7 +93,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,7 +377,7 @@
   <dimension ref="B2:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,6 +434,9 @@
       <c r="G3" t="s">
         <v>7</v>
       </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1">

--- a/financialControl.xlsx
+++ b/financialControl.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Day</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>https://vi.aliexpress.com/item/T-l-20-1-Worm-Loai-Reducer-NEMA23-Worm-Gear-ng-C-B-c-2-8Nm/32841463277.html?spm=2114.10010108.1000014.1.4b115c02F4k4fb&amp;pvid=08888958-1276-48d9-a3ec-0a2ff57c7cdb&amp;gps-id=pcDetailBottomMoreOtherSeller&amp;scm=1007.13338.120274.000000000000000&amp;scm-url=1007.13338.120274.000000000000000&amp;scm_id=1007.13338.120274.000000000000000&amp;fbclid=IwAR2NFrEzP0PjPCEgglo3cGtLrq7Lk6hBt9w-g9eAX3J8KnxGtHRJZ2_m_Kg</t>
+  </si>
+  <si>
+    <t>Duong Ba Trac</t>
   </si>
 </sst>
 </file>
@@ -377,7 +380,7 @@
   <dimension ref="B2:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,6 +461,9 @@
       <c r="G4" t="s">
         <v>7</v>
       </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I10" t="s">

--- a/financialControl.xlsx
+++ b/financialControl.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Day</t>
   </si>
@@ -58,6 +58,21 @@
   </si>
   <si>
     <t>Duong Ba Trac</t>
+  </si>
+  <si>
+    <t>Harmonic rotary</t>
+  </si>
+  <si>
+    <t>5 phase driver</t>
+  </si>
+  <si>
+    <t>NBC</t>
+  </si>
+  <si>
+    <t>Nhôm định hình</t>
+  </si>
+  <si>
+    <t>Quyết tiến</t>
   </si>
 </sst>
 </file>
@@ -380,7 +395,7 @@
   <dimension ref="B2:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,7 +470,7 @@
         <v>400000</v>
       </c>
       <c r="F4">
-        <f>D4*E4</f>
+        <f t="shared" ref="F4:F7" si="0">D4*E4</f>
         <v>400000</v>
       </c>
       <c r="G4" t="s">
@@ -463,6 +478,75 @@
       </c>
       <c r="H4" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>43449</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2000000</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>2000000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>43452</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>500000</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>43456</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1850000</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1850000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
@@ -470,8 +554,8 @@
         <v>9</v>
       </c>
       <c r="J10">
-        <f>SUM(E3:E10)</f>
-        <v>3278000</v>
+        <f>SUM(F3:F10)</f>
+        <v>7628000</v>
       </c>
     </row>
   </sheetData>

--- a/financialControl.xlsx
+++ b/financialControl.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>Day</t>
   </si>
@@ -69,10 +69,58 @@
     <t>NBC</t>
   </si>
   <si>
-    <t>Nhôm định hình</t>
-  </si>
-  <si>
     <t>Quyết tiến</t>
+  </si>
+  <si>
+    <t>Mạch launchpad ESP432</t>
+  </si>
+  <si>
+    <t>ProE</t>
+  </si>
+  <si>
+    <t>Đế bánh xe</t>
+  </si>
+  <si>
+    <t>Bãi gần Phước Long</t>
+  </si>
+  <si>
+    <t>Đế thép 1060*1060</t>
+  </si>
+  <si>
+    <t>Tiệm bán thép Huỳnh Văn Lũy</t>
+  </si>
+  <si>
+    <t>Nhôm định hình (3060, 6060)</t>
+  </si>
+  <si>
+    <t>Nhôm định hình lần 2 (3030)</t>
+  </si>
+  <si>
+    <t>Cầu Thịnh</t>
+  </si>
+  <si>
+    <t>Phụ kiện + lưỡi mài + mũi khoan</t>
+  </si>
+  <si>
+    <t>Thủ Đức + DIYCNC</t>
+  </si>
+  <si>
+    <t>Mua sơn + ốc + mũi khoan</t>
+  </si>
+  <si>
+    <t>Tạ Quyên + Việt Hải</t>
+  </si>
+  <si>
+    <t>Pully + linh tinh</t>
+  </si>
+  <si>
+    <t>Bãi Bình Dương</t>
+  </si>
+  <si>
+    <t>Con trượt</t>
+  </si>
+  <si>
+    <t>Việt Thống</t>
   </si>
 </sst>
 </file>
@@ -108,10 +156,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J10"/>
+  <dimension ref="B2:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,7 +460,7 @@
     <col min="8" max="8" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -432,7 +483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>43439</v>
       </c>
@@ -456,7 +507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>43442</v>
       </c>
@@ -470,7 +521,7 @@
         <v>400000</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F7" si="0">D4*E4</f>
+        <f t="shared" ref="F4:F15" si="0">D4*E4</f>
         <v>400000</v>
       </c>
       <c r="G4" t="s">
@@ -480,7 +531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>43449</v>
       </c>
@@ -504,7 +555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>43452</v>
       </c>
@@ -525,12 +576,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>43456</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -546,16 +597,208 @@
         <v>7</v>
       </c>
       <c r="H7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>43461</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I10" t="s">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>850000</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>850000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>43462</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>800000</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>800000</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>43463</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>400000</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>400000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>43469</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>720000</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>720000</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>43470</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1200000</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1200000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>43472</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>270000</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>270000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>43473</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>200000</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>43474</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>400000</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>400000</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
         <v>9</v>
       </c>
-      <c r="J10">
-        <f>SUM(F3:F10)</f>
-        <v>7628000</v>
+      <c r="I16">
+        <f>SUM(F3:F13)</f>
+        <v>11868000</v>
       </c>
     </row>
   </sheetData>

--- a/financialControl.xlsx
+++ b/financialControl.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>Day</t>
   </si>
@@ -121,6 +121,24 @@
   </si>
   <si>
     <t>Việt Thống</t>
+  </si>
+  <si>
+    <t>Trục then 14</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>3 cái Encoder</t>
+  </si>
+  <si>
+    <t>Bãi An Sương</t>
+  </si>
+  <si>
+    <t>Bạc 6306</t>
+  </si>
+  <si>
+    <t>Chợ (nhờ Nghi mua)</t>
   </si>
 </sst>
 </file>
@@ -443,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I16"/>
+  <dimension ref="B2:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +478,7 @@
     <col min="8" max="8" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -483,7 +501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>43439</v>
       </c>
@@ -507,7 +525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>43442</v>
       </c>
@@ -521,7 +539,7 @@
         <v>400000</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F15" si="0">D4*E4</f>
+        <f t="shared" ref="F4:F17" si="0">D4*E4</f>
         <v>400000</v>
       </c>
       <c r="G4" t="s">
@@ -531,7 +549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>43449</v>
       </c>
@@ -555,7 +573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>43452</v>
       </c>
@@ -576,7 +594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>43456</v>
       </c>
@@ -600,7 +618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>43461</v>
       </c>
@@ -624,7 +642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>43462</v>
       </c>
@@ -648,7 +666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>43463</v>
       </c>
@@ -672,7 +690,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>43469</v>
       </c>
@@ -696,7 +714,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>43470</v>
       </c>
@@ -720,7 +738,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>43472</v>
       </c>
@@ -744,7 +762,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>43473</v>
       </c>
@@ -768,7 +786,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>43474</v>
       </c>
@@ -792,13 +810,85 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>43476</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>368000</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>368000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
       <c r="H16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>43481</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>70000</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>70000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>43483</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>500000</v>
+      </c>
+      <c r="F18">
+        <f>D18*E18</f>
+        <v>500000</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
         <v>9</v>
       </c>
-      <c r="I16">
-        <f>SUM(F3:F13)</f>
-        <v>11868000</v>
+      <c r="I20">
+        <f>SUM(F3:F18)</f>
+        <v>13406000</v>
       </c>
     </row>
   </sheetData>

--- a/financialControl.xlsx
+++ b/financialControl.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>Day</t>
   </si>
@@ -139,6 +139,24 @@
   </si>
   <si>
     <t>Chợ (nhờ Nghi mua)</t>
+  </si>
+  <si>
+    <t>Lục giác inox</t>
+  </si>
+  <si>
+    <t>Tạ Uyên</t>
+  </si>
+  <si>
+    <t>Hộp số Harmonic</t>
+  </si>
+  <si>
+    <t>Chổ gần vòng xoay Âu Cơ + Shopee</t>
+  </si>
+  <si>
+    <t>Vòng bi chịu tải</t>
+  </si>
+  <si>
+    <t>PPGAS</t>
   </si>
 </sst>
 </file>
@@ -461,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I20"/>
+  <dimension ref="B2:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,13 +900,85 @@
         <v>37</v>
       </c>
     </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>43475</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>240000</v>
+      </c>
+      <c r="F19">
+        <f>D19*E19</f>
+        <v>240000</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>43475</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1500000</v>
+      </c>
+      <c r="F20">
+        <f>D20*E20</f>
+        <v>1500000</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
       <c r="H20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>43475</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1500000</v>
+      </c>
+      <c r="F21">
+        <f>D21*E21</f>
+        <v>1500000</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
         <v>9</v>
       </c>
-      <c r="I20">
-        <f>SUM(F3:F18)</f>
-        <v>13406000</v>
+      <c r="I25">
+        <f>SUM(F3:F24)</f>
+        <v>16646000</v>
       </c>
     </row>
   </sheetData>

--- a/financialControl.xlsx
+++ b/financialControl.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>Day</t>
   </si>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t>PPGAS</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Phôi nhôm</t>
+  </si>
+  <si>
+    <t>Thiên Hương, chị Thắm</t>
+  </si>
+  <si>
+    <t>Resold: 10/3/2019</t>
   </si>
 </sst>
 </file>
@@ -479,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I25"/>
+  <dimension ref="B2:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,11 +504,11 @@
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="7" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -516,10 +528,13 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>43439</v>
       </c>
@@ -539,11 +554,11 @@
       <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>43442</v>
       </c>
@@ -564,10 +579,16 @@
         <v>7</v>
       </c>
       <c r="H4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4">
+        <v>400000</v>
+      </c>
+      <c r="J4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>43449</v>
       </c>
@@ -587,11 +608,11 @@
       <c r="G5" t="s">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>43452</v>
       </c>
@@ -612,7 +633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>43456</v>
       </c>
@@ -632,11 +653,11 @@
       <c r="G7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>43461</v>
       </c>
@@ -656,11 +677,11 @@
       <c r="G8" t="s">
         <v>7</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>43462</v>
       </c>
@@ -680,11 +701,11 @@
       <c r="G9" t="s">
         <v>7</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>43463</v>
       </c>
@@ -704,11 +725,11 @@
       <c r="G10" t="s">
         <v>7</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>43469</v>
       </c>
@@ -728,11 +749,11 @@
       <c r="G11" t="s">
         <v>7</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>43470</v>
       </c>
@@ -752,11 +773,11 @@
       <c r="G12" t="s">
         <v>7</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>43472</v>
       </c>
@@ -776,11 +797,11 @@
       <c r="G13" t="s">
         <v>7</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>43473</v>
       </c>
@@ -800,11 +821,11 @@
       <c r="G14" t="s">
         <v>7</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>43474</v>
       </c>
@@ -824,11 +845,11 @@
       <c r="G15" t="s">
         <v>7</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>43476</v>
       </c>
@@ -848,11 +869,11 @@
       <c r="G16" t="s">
         <v>7</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>43481</v>
       </c>
@@ -872,11 +893,11 @@
       <c r="G17" t="s">
         <v>7</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>43483</v>
       </c>
@@ -896,11 +917,11 @@
       <c r="G18" t="s">
         <v>7</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>43475</v>
       </c>
@@ -920,11 +941,11 @@
       <c r="G19" t="s">
         <v>7</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>43475</v>
       </c>
@@ -944,11 +965,11 @@
       <c r="G20" t="s">
         <v>7</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>43475</v>
       </c>
@@ -968,17 +989,45 @@
       <c r="G21" t="s">
         <v>7</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H25" t="s">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>43531</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>3699000</v>
+      </c>
+      <c r="F22">
+        <f>D22*E22</f>
+        <v>3699000</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <f>SUM(I4:I21)</f>
+        <v>400000</v>
+      </c>
+      <c r="J25" t="s">
         <v>9</v>
       </c>
-      <c r="I25">
-        <f>SUM(F3:F24)</f>
-        <v>16646000</v>
+      <c r="K25">
+        <f>SUM(F3:F24) -I25</f>
+        <v>19945000</v>
       </c>
     </row>
   </sheetData>

--- a/financialControl.xlsx
+++ b/financialControl.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>Day</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>Resold: 10/3/2019</t>
+  </si>
+  <si>
+    <t>Dao phay (D4, D6, D8, D12)</t>
+  </si>
+  <si>
+    <t>Ngũ Kim Đỉnh Vàng</t>
   </si>
 </sst>
 </file>
@@ -491,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K25"/>
+  <dimension ref="B2:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,17 +1023,41 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I25">
-        <f>SUM(I4:I21)</f>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>43537</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>922000</v>
+      </c>
+      <c r="F23">
+        <f>D23*E23</f>
+        <v>922000</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <f>SUM(I4:I23)</f>
         <v>400000</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J27" t="s">
         <v>9</v>
       </c>
-      <c r="K25">
-        <f>SUM(F3:F24) -I25</f>
-        <v>19945000</v>
+      <c r="K27">
+        <f>SUM(F3:F24) -I27</f>
+        <v>20867000</v>
       </c>
     </row>
   </sheetData>

--- a/financialControl.xlsx
+++ b/financialControl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>Day</t>
   </si>
@@ -175,6 +175,15 @@
   </si>
   <si>
     <t>Ngũ Kim Đỉnh Vàng</t>
+  </si>
+  <si>
+    <t>Doa tiện (3 loại dao + chip)</t>
+  </si>
+  <si>
+    <t>Tạ uyên</t>
+  </si>
+  <si>
+    <t>Đồ điện linh tinh + Mega 2560</t>
   </si>
 </sst>
 </file>
@@ -499,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,7 +926,7 @@
         <v>500000</v>
       </c>
       <c r="F18">
-        <f>D18*E18</f>
+        <f t="shared" ref="F18:F25" si="1">D18*E18</f>
         <v>500000</v>
       </c>
       <c r="G18" t="s">
@@ -941,7 +950,7 @@
         <v>240000</v>
       </c>
       <c r="F19">
-        <f>D19*E19</f>
+        <f t="shared" si="1"/>
         <v>240000</v>
       </c>
       <c r="G19" t="s">
@@ -965,7 +974,7 @@
         <v>1500000</v>
       </c>
       <c r="F20">
-        <f>D20*E20</f>
+        <f t="shared" si="1"/>
         <v>1500000</v>
       </c>
       <c r="G20" t="s">
@@ -989,7 +998,7 @@
         <v>1500000</v>
       </c>
       <c r="F21">
-        <f>D21*E21</f>
+        <f t="shared" si="1"/>
         <v>1500000</v>
       </c>
       <c r="G21" t="s">
@@ -1013,7 +1022,7 @@
         <v>3699000</v>
       </c>
       <c r="F22">
-        <f>D22*E22</f>
+        <f t="shared" si="1"/>
         <v>3699000</v>
       </c>
       <c r="G22" t="s">
@@ -1037,7 +1046,7 @@
         <v>922000</v>
       </c>
       <c r="F23">
-        <f>D23*E23</f>
+        <f t="shared" si="1"/>
         <v>922000</v>
       </c>
       <c r="G23" t="s">
@@ -1045,6 +1054,51 @@
       </c>
       <c r="J23" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>43554</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>515000</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>515000</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>43552</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>315000</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>315000</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
@@ -1057,7 +1111,7 @@
       </c>
       <c r="K27">
         <f>SUM(F3:F24) -I27</f>
-        <v>20867000</v>
+        <v>21382000</v>
       </c>
     </row>
   </sheetData>

--- a/financialControl.xlsx
+++ b/financialControl.xlsx
@@ -506,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K27"/>
+  <dimension ref="B2:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="I31" sqref="I31:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,16 +1102,18 @@
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I27">
+      <c r="K27">
+        <f>SUM(F3:F24) -I31</f>
+        <v>21382000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I31">
         <f>SUM(I4:I23)</f>
         <v>400000</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J31" t="s">
         <v>9</v>
-      </c>
-      <c r="K27">
-        <f>SUM(F3:F24) -I27</f>
-        <v>21382000</v>
       </c>
     </row>
   </sheetData>

--- a/financialControl.xlsx
+++ b/financialControl.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>Day</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>Đồ điện linh tinh + Mega 2560</t>
+  </si>
+  <si>
+    <t>Phôi nhôm đợt 2</t>
+  </si>
+  <si>
+    <t>Thế giới IC</t>
   </si>
 </sst>
 </file>
@@ -506,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K31"/>
+  <dimension ref="B2:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31:J31"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,7 +932,7 @@
         <v>500000</v>
       </c>
       <c r="F18">
-        <f t="shared" ref="F18:F25" si="1">D18*E18</f>
+        <f t="shared" ref="F18:F26" si="1">D18*E18</f>
         <v>500000</v>
       </c>
       <c r="G18" t="s">
@@ -1100,19 +1106,49 @@
       <c r="G25" t="s">
         <v>7</v>
       </c>
+      <c r="J25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>43578</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>657000</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>657000</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K27">
-        <f>SUM(F3:F24) -I31</f>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <f>SUM(F3:F24) -I33</f>
         <v>21382000</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I31">
+    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I33">
         <f>SUM(I4:I23)</f>
         <v>400000</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J33" t="s">
         <v>9</v>
       </c>
     </row>

--- a/financialControl.xlsx
+++ b/financialControl.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
   <si>
     <t>Day</t>
   </si>
@@ -190,6 +190,33 @@
   </si>
   <si>
     <t>Thế giới IC</t>
+  </si>
+  <si>
+    <t>Gia công nhôm</t>
+  </si>
+  <si>
+    <t>Anh Lợi</t>
+  </si>
+  <si>
+    <t>Ốc tổng hợp</t>
+  </si>
+  <si>
+    <t>Dũng mua</t>
+  </si>
+  <si>
+    <t>Đạt mua</t>
+  </si>
+  <si>
+    <t>Ống nhôm làm anten</t>
+  </si>
+  <si>
+    <t>Adapter in 3D</t>
+  </si>
+  <si>
+    <t>Chợ Tam Hà</t>
+  </si>
+  <si>
+    <t>Tú in</t>
   </si>
 </sst>
 </file>
@@ -512,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K33"/>
+  <dimension ref="B2:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,7 +921,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>43481</v>
       </c>
@@ -918,7 +945,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>43483</v>
       </c>
@@ -932,7 +959,7 @@
         <v>500000</v>
       </c>
       <c r="F18">
-        <f t="shared" ref="F18:F26" si="1">D18*E18</f>
+        <f t="shared" ref="F18:F31" si="1">D18*E18</f>
         <v>500000</v>
       </c>
       <c r="G18" t="s">
@@ -942,7 +969,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>43475</v>
       </c>
@@ -966,7 +993,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>43475</v>
       </c>
@@ -990,7 +1017,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>43475</v>
       </c>
@@ -1014,7 +1041,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>43531</v>
       </c>
@@ -1038,7 +1065,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>43537</v>
       </c>
@@ -1062,7 +1089,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>43554</v>
       </c>
@@ -1086,7 +1113,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>43552</v>
       </c>
@@ -1110,7 +1137,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>43578</v>
       </c>
@@ -1134,22 +1161,137 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K31">
-        <f>SUM(F3:F24) -I33</f>
-        <v>21382000</v>
-      </c>
-    </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I33">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>43582</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>2000000</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>2000000</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>43556</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>350000</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>350000</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>43593</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>270000</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>270000</v>
+      </c>
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>43570</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>250000</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>250000</v>
+      </c>
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>43570</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>150000</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>150000</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I38">
         <f>SUM(I4:I23)</f>
         <v>400000</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J38" t="s">
         <v>9</v>
+      </c>
+      <c r="K38">
+        <f>SUM(F3:F36) -I38</f>
+        <v>25374000</v>
       </c>
     </row>
   </sheetData>

--- a/financialControl.xlsx
+++ b/financialControl.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
   <si>
     <t>Day</t>
   </si>
@@ -217,6 +217,24 @@
   </si>
   <si>
     <t>Tú in</t>
+  </si>
+  <si>
+    <t>Trục phi 50, phi 40</t>
+  </si>
+  <si>
+    <t>Đạt mua ở Tam Hà</t>
+  </si>
+  <si>
+    <t>Tủ điện 60x80x30</t>
+  </si>
+  <si>
+    <t>Quận 8 (Hân Lê)</t>
+  </si>
+  <si>
+    <t>Anten chảo</t>
+  </si>
+  <si>
+    <t>DVB Việt Nam</t>
   </si>
 </sst>
 </file>
@@ -541,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,7 +977,7 @@
         <v>500000</v>
       </c>
       <c r="F18">
-        <f t="shared" ref="F18:F31" si="1">D18*E18</f>
+        <f t="shared" ref="F18:F34" si="1">D18*E18</f>
         <v>500000</v>
       </c>
       <c r="G18" t="s">
@@ -1281,7 +1299,79 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <v>43597</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>325000</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>325000</v>
+      </c>
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>43598</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>550000</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>550000</v>
+      </c>
+      <c r="G33" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>43596</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>750000</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>750000</v>
+      </c>
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I38">
         <f>SUM(I4:I23)</f>
         <v>400000</v>
@@ -1291,7 +1381,7 @@
       </c>
       <c r="K38">
         <f>SUM(F3:F36) -I38</f>
-        <v>25374000</v>
+        <v>26999000</v>
       </c>
     </row>
   </sheetData>

--- a/financialControl.xlsx
+++ b/financialControl.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="108">
   <si>
     <t>Day</t>
   </si>
@@ -235,15 +236,130 @@
   </si>
   <si>
     <t>DVB Việt Nam</t>
+  </si>
+  <si>
+    <t>Nhôm + phụ kiện cho tủ điện</t>
+  </si>
+  <si>
+    <t>Tổng hợp</t>
+  </si>
+  <si>
+    <t>Screws, nuts and misc</t>
+  </si>
+  <si>
+    <t>3D printed filament</t>
+  </si>
+  <si>
+    <t>Acrylic sheet</t>
+  </si>
+  <si>
+    <t>Power supply unit</t>
+  </si>
+  <si>
+    <t>Power filter</t>
+  </si>
+  <si>
+    <t>Aluminum sheet and billet</t>
+  </si>
+  <si>
+    <t>Aluminum frame and accessories</t>
+  </si>
+  <si>
+    <t>3D printing service</t>
+  </si>
+  <si>
+    <t>Laser cutting service</t>
+  </si>
+  <si>
+    <t>Electronic part and components</t>
+  </si>
+  <si>
+    <t>Embedded computer (raspberry)</t>
+  </si>
+  <si>
+    <t>Embedded central unit (arduino)</t>
+  </si>
+  <si>
+    <t>Encoder</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>Sheet</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>Aluminum CNC manufacturing service</t>
+  </si>
+  <si>
+    <t>Circuit</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Thegioiic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dây điện + bus </t>
+  </si>
+  <si>
+    <t>Tiện lần 2</t>
+  </si>
+  <si>
+    <t>Đạt mua linh kiện linh tinh làm cover…</t>
+  </si>
+  <si>
+    <t>Đạt</t>
+  </si>
+  <si>
+    <t>Khung cơ khí gá anten</t>
+  </si>
+  <si>
+    <t>Trang trí, đề can, sơn</t>
+  </si>
+  <si>
+    <t>Vũ</t>
+  </si>
+  <si>
+    <t>Điện linh tinh</t>
+  </si>
+  <si>
+    <t>Lon</t>
+  </si>
+  <si>
+    <t>Dũng</t>
+  </si>
+  <si>
+    <t>Đồ linh tinh Đạt</t>
+  </si>
+  <si>
+    <t>Bạt che mưa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -270,12 +386,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K38"/>
+  <dimension ref="B2:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="C14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,7 +1102,7 @@
         <v>500000</v>
       </c>
       <c r="F18">
-        <f t="shared" ref="F18:F34" si="1">D18*E18</f>
+        <f t="shared" ref="F18:F45" si="1">D18*E18</f>
         <v>500000</v>
       </c>
       <c r="G18" t="s">
@@ -1358,11 +1483,11 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>750000</v>
+        <v>900000</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>750000</v>
+        <v>900000</v>
       </c>
       <c r="G34" t="s">
         <v>7</v>
@@ -1371,17 +1496,577 @@
         <v>71</v>
       </c>
     </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>43606</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1300000</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>1300000</v>
+      </c>
+      <c r="G35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>43608</v>
+      </c>
+      <c r="C36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>650000</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>650000</v>
+      </c>
+      <c r="G36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>43604</v>
+      </c>
+      <c r="C37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>900000</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>900000</v>
+      </c>
+      <c r="G37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I38">
+      <c r="B38" s="2">
+        <v>43615</v>
+      </c>
+      <c r="C38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>600000</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>600000</v>
+      </c>
+      <c r="G38" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <v>43616</v>
+      </c>
+      <c r="C39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>900000</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>900000</v>
+      </c>
+      <c r="G39" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
+        <v>43616</v>
+      </c>
+      <c r="C40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>300000</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>300000</v>
+      </c>
+      <c r="G40" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <v>43617</v>
+      </c>
+      <c r="C41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>500000</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>500000</v>
+      </c>
+      <c r="G41" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
+        <v>43618</v>
+      </c>
+      <c r="C42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>300000</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>300000</v>
+      </c>
+      <c r="G42" t="s">
+        <v>7</v>
+      </c>
+      <c r="J42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
+        <v>43632</v>
+      </c>
+      <c r="C43" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>500000</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>500000</v>
+      </c>
+      <c r="G43" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
+        <v>43632</v>
+      </c>
+      <c r="C44" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>560000</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>560000</v>
+      </c>
+      <c r="G44" t="s">
+        <v>7</v>
+      </c>
+      <c r="J44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
+        <v>43639</v>
+      </c>
+      <c r="C45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>300000</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>300000</v>
+      </c>
+      <c r="G45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I48">
         <f>SUM(I4:I23)</f>
         <v>400000</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J48" t="s">
         <v>9</v>
       </c>
-      <c r="K38">
-        <f>SUM(F3:F36) -I38</f>
-        <v>26999000</v>
+      <c r="K48">
+        <f>SUM(F3:F45) -I48</f>
+        <v>33959000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="4">
+        <v>750000</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>C2*D2</f>
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="4">
+        <v>340000</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E15" si="0">C3*D3</f>
+        <v>680000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1450000</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1450000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3746000</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>3746000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="4">
+        <v>380000</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1260000</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1260000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="4">
+        <v>850000</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>850000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4120000</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>4120000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1250000</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="4">
+        <v>230000</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="4">
+        <v>210000</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1450000</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1450000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="4">
+        <v>445000</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>445000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="5">
+        <v>247000</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>247000</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f>SUM(E2:E15)</f>
+        <v>17068000</v>
       </c>
     </row>
   </sheetData>

--- a/financialControl.xlsx
+++ b/financialControl.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="110">
   <si>
     <t>Day</t>
   </si>
@@ -344,6 +344,12 @@
   </si>
   <si>
     <t>Bạt che mưa</t>
+  </si>
+  <si>
+    <t>Nhôm làm anten + boom</t>
+  </si>
+  <si>
+    <t>Dây 100m x 0.75 làm rulo</t>
   </si>
 </sst>
 </file>
@@ -682,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K48"/>
+  <dimension ref="B2:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,7 +1108,7 @@
         <v>500000</v>
       </c>
       <c r="F18">
-        <f t="shared" ref="F18:F45" si="1">D18*E18</f>
+        <f t="shared" ref="F18:F47" si="1">D18*E18</f>
         <v>500000</v>
       </c>
       <c r="G18" t="s">
@@ -1448,7 +1454,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>43598</v>
       </c>
@@ -1472,7 +1478,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>43596</v>
       </c>
@@ -1496,7 +1502,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>43606</v>
       </c>
@@ -1520,7 +1526,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>43608</v>
       </c>
@@ -1544,7 +1550,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>43604</v>
       </c>
@@ -1568,7 +1574,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <v>43615</v>
       </c>
@@ -1592,7 +1598,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <v>43616</v>
       </c>
@@ -1616,7 +1622,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <v>43616</v>
       </c>
@@ -1640,7 +1646,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>43617</v>
       </c>
@@ -1664,7 +1670,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <v>43618</v>
       </c>
@@ -1688,7 +1694,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <v>43632</v>
       </c>
@@ -1712,7 +1718,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <v>43632</v>
       </c>
@@ -1736,7 +1742,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <v>43639</v>
       </c>
@@ -1760,16 +1766,52 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I48">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
+        <v>43648</v>
+      </c>
+      <c r="C46" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>265000</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>265000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <v>43648</v>
+      </c>
+      <c r="C47" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>400000</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="54" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I54">
         <f>SUM(I4:I23)</f>
         <v>400000</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J54" t="s">
         <v>9</v>
       </c>
-      <c r="K48">
-        <f>SUM(F3:F45) -I48</f>
+      <c r="K54">
+        <f>SUM(F3:F45) -I54</f>
         <v>33959000</v>
       </c>
     </row>
